--- a/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Dealer_metadata.xlsx
+++ b/T04_M2_D2_MDM_Metadata_files/T04_M2_D2_Dim_Dealer_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEIS732\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T04_M2_D2_MDM_Metadata_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7387315-F53F-4122-8A3E-F2ECA4EF6035}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF29304-0ADA-4A0A-B3D2-0BCCA416C6BF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{D5E70272-299D-4ED9-A944-5F4DE9CEE67F}"/>
   </bookViews>
@@ -153,9 +153,6 @@
     <t>Dealer's Name</t>
   </si>
   <si>
-    <t>Uniquely identifies a Dealer</t>
-  </si>
-  <si>
     <t>Dealer's Street Name</t>
   </si>
   <si>
@@ -184,13 +181,16 @@
   </si>
   <si>
     <t>Micropolitan State Area Name</t>
+  </si>
+  <si>
+    <t>Surrogate key, primary key for a Dealer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,9 +244,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -328,49 +333,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,38 +720,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -757,7 +762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
@@ -768,7 +773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -779,7 +784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -790,7 +795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -801,7 +806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -812,7 +817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
@@ -823,7 +828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>34</v>
       </c>
@@ -831,10 +836,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
@@ -842,10 +847,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
@@ -853,10 +858,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
@@ -867,7 +872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
@@ -875,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -886,10 +891,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -897,10 +902,10 @@
         <v>40230</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
@@ -908,10 +913,10 @@
         <v>55102</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
@@ -919,10 +924,10 @@
         <v>40047</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>23</v>
       </c>
@@ -930,10 +935,10 @@
         <v>26</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
@@ -941,10 +946,10 @@
         <v>27</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
@@ -952,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
